--- a/ONCHO/OEM/Guinea Conakry/2022 june/gn_oncho_oem_2_participant_202205_v1.xlsx
+++ b/ONCHO/OEM/Guinea Conakry/2022 june/gn_oncho_oem_2_participant_202205_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jboulinzann\Documents\Mes dev\WHO\FORMS\GUINEE CONAKRY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241B10C8-141E-4115-850E-DD2FE94ACAFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542BDF57-022E-465D-9378-5DD3297E3695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="93">
   <si>
     <t>type</t>
   </si>
@@ -193,30 +193,9 @@
     <t>F</t>
   </si>
   <si>
-    <t>select_one recorder_list</t>
-  </si>
-  <si>
-    <t>recorder_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALPHA OUMAR BAH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koly Béavogui </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaston CHERIF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MK </t>
-  </si>
-  <si>
     <t>p_recorderID</t>
   </si>
   <si>
-    <t>1. Personne remplissant le questionnaire :</t>
-  </si>
-  <si>
     <t xml:space="preserve">regex(., '^GNE_[A-Z]{3}_oncho_[0-9]{3}_[0-9]{5}$') </t>
   </si>
   <si>
@@ -320,6 +299,18 @@
   </si>
   <si>
     <t>Format du code: GNE_ABC_oncho_nnn_nnnnn où ABC représente les 3 premières lettres du district en majuscule, nnn: le code du village ou communauté sur 3 chiffres et nnnnn: le numéro d'ordre du participant sur 5 chiffres.</t>
+  </si>
+  <si>
+    <t>1. Veuillez entrer l'identifiant de l'enregistreur:</t>
+  </si>
+  <si>
+    <t>L'identifiant de l'enregistreur est un code à 2 chiffres qui vous a été attribué, à vous ou à votre équipe.</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{2}$')</t>
+  </si>
+  <si>
+    <t>Code sur 2 chiffres uniquement</t>
   </si>
 </sst>
 </file>
@@ -792,7 +783,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -858,21 +849,26 @@
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1">
       <c r="A2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>59</v>
-      </c>
       <c r="C2" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="18"/>
+        <v>89</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="I2" s="14"/>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="18" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="14"/>
@@ -887,7 +883,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="14"/>
@@ -907,10 +903,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="12"/>
@@ -931,7 +927,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="12"/>
@@ -952,7 +948,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="12"/>
@@ -975,7 +971,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -992,13 +988,13 @@
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -1020,23 +1016,23 @@
         <v>49</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C9" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>88</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>95</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="25" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>15</v>
@@ -1047,23 +1043,23 @@
         <v>16</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="25" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>15</v>
@@ -1077,7 +1073,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -1102,14 +1098,14 @@
         <v>23</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D12" s="16"/>
       <c r="F12" s="19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>45</v>
@@ -1123,19 +1119,19 @@
         <v>14</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>45</v>
@@ -1152,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>45</v>
@@ -1184,7 +1180,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J16" s="14"/>
     </row>
@@ -1227,8 +1223,8 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1306,26 +1302,26 @@
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1">
       <c r="A6" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1">
       <c r="A7" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="11"/>
@@ -1338,54 +1334,30 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1">
-      <c r="A9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="7"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" s="4" customFormat="1">
-      <c r="A10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="7"/>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1">
-      <c r="A11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="7"/>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" s="4" customFormat="1">
-      <c r="A12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="7"/>
       <c r="E12" s="11"/>
     </row>
@@ -1662,10 +1634,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>

--- a/ONCHO/OEM/Guinea Conakry/2022 june/gn_oncho_oem_2_participant_202205_v1.xlsx
+++ b/ONCHO/OEM/Guinea Conakry/2022 june/gn_oncho_oem_2_participant_202205_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jboulinzann\Documents\Mes dev\WHO\FORMS\GUINEE CONAKRY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542BDF57-022E-465D-9378-5DD3297E3695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C066F5-735F-446D-87BA-1608B4AC6D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -779,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1611,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
